--- a/data/output/backtest_Close_ADA.xlsx
+++ b/data/output/backtest_Close_ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>valeur_crypto</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valeur_portefeuille_buy_and_hold</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -508,6 +513,9 @@
       <c r="H2" t="n">
         <v>0.479</v>
       </c>
+      <c r="I2" t="n">
+        <v>10006.26501012452</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,7 +524,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006139511933795916</v>
+        <v>0.0006138989740893663</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -542,6 +550,9 @@
       <c r="H3" t="n">
         <v>0.5022</v>
       </c>
+      <c r="I3" t="n">
+        <v>10479.53982475502</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -550,7 +561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06152841315326185</v>
+        <v>0.06152855716974237</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -576,6 +587,9 @@
       <c r="H4" t="n">
         <v>0.5012</v>
       </c>
+      <c r="I4" t="n">
+        <v>10458.65175759476</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -584,7 +598,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05214928615285963</v>
+        <v>0.05214927618481724</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -610,6 +624,9 @@
       <c r="H5" t="n">
         <v>0.4635</v>
       </c>
+      <c r="I5" t="n">
+        <v>9640.797342936819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,7 +635,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04688653162444112</v>
+        <v>-0.04688671782810871</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -644,6 +661,9 @@
       <c r="H6" t="n">
         <v>0.4809</v>
       </c>
+      <c r="I6" t="n">
+        <v>9996.089293383886</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -652,7 +672,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01992861013985703</v>
+        <v>-0.01992846083740218</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -678,6 +698,9 @@
       <c r="H7" t="n">
         <v>0.4662</v>
       </c>
+      <c r="I7" t="n">
+        <v>9685.76448297169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -686,7 +709,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630056167199491</v>
+        <v>-0.03630060775992128</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -712,6 +735,9 @@
       <c r="H8" t="n">
         <v>0.4746</v>
       </c>
+      <c r="I8" t="n">
+        <v>9858.729159335169</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,7 +746,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.006182424548773824</v>
+        <v>-0.0061824239086814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -746,6 +772,9 @@
       <c r="H9" t="n">
         <v>0.4527</v>
       </c>
+      <c r="I9" t="n">
+        <v>9392.976278207039</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -754,7 +783,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006602915185629499</v>
+        <v>-0.006602862226305461</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,6 +809,9 @@
       <c r="H10" t="n">
         <v>0.4422</v>
       </c>
+      <c r="I10" t="n">
+        <v>9172.547678023111</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -788,7 +820,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02136562001574127</v>
+        <v>-0.02136572342954146</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -814,6 +846,9 @@
       <c r="H11" t="n">
         <v>0.4389</v>
       </c>
+      <c r="I11" t="n">
+        <v>9103.839134446995</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -822,7 +857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01742774722772289</v>
+        <v>-0.01742774628892363</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -848,6 +883,9 @@
       <c r="H12" t="n">
         <v>0.4584</v>
       </c>
+      <c r="I12" t="n">
+        <v>9499.588199032451</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -856,7 +894,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02946968185690224</v>
+        <v>0.02946962751795823</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -882,6 +920,9 @@
       <c r="H13" t="n">
         <v>0.4618</v>
       </c>
+      <c r="I13" t="n">
+        <v>9569.787605372579</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -890,7 +931,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02028800547912368</v>
+        <v>0.02028810888177901</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -916,6 +957,9 @@
       <c r="H14" t="n">
         <v>0.4473</v>
       </c>
+      <c r="I14" t="n">
+        <v>9264.488542639228</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -924,7 +968,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004594878475963071</v>
+        <v>0.00459487800193159</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -950,6 +994,9 @@
       <c r="H15" t="n">
         <v>0.4411</v>
       </c>
+      <c r="I15" t="n">
+        <v>9135.175707178556</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -958,7 +1005,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.00796211004945846</v>
+        <v>-0.007962316729516417</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -984,6 +1031,9 @@
       <c r="H16" t="n">
         <v>0.4361</v>
       </c>
+      <c r="I16" t="n">
+        <v>9031.034409396099</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -992,7 +1042,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002646513878531209</v>
+        <v>0.002646565891357255</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1018,6 +1068,9 @@
       <c r="H17" t="n">
         <v>0.4381</v>
       </c>
+      <c r="I17" t="n">
+        <v>9072.356990799712</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1026,7 +1079,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01477182908523034</v>
+        <v>0.0147718808238384</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1052,6 +1105,9 @@
       <c r="H18" t="n">
         <v>0.4347</v>
       </c>
+      <c r="I18" t="n">
+        <v>9001.673741946739</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1060,7 +1116,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005116773069479663</v>
+        <v>-0.005116824310951174</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1086,6 +1142,9 @@
       <c r="H19" t="n">
         <v>0.4276</v>
       </c>
+      <c r="I19" t="n">
+        <v>8853.434549238538</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1094,7 +1153,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008906010677121046</v>
+        <v>0.008906163492866881</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1120,6 +1179,9 @@
       <c r="H20" t="n">
         <v>0.4355</v>
       </c>
+      <c r="I20" t="n">
+        <v>9015.51098592026</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1128,7 +1190,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02093312319408014</v>
+        <v>0.02093312108991441</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1154,6 +1216,9 @@
       <c r="H21" t="n">
         <v>0.4309</v>
       </c>
+      <c r="I21" t="n">
+        <v>8919.777513575718</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1162,7 +1227,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005086278783874576</v>
+        <v>0.005086080348297273</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1188,6 +1253,9 @@
       <c r="H22" t="n">
         <v>0.4288</v>
       </c>
+      <c r="I22" t="n">
+        <v>8876.200521521068</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1196,7 +1264,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005924217840890478</v>
+        <v>-0.005924118875421769</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1222,6 +1290,9 @@
       <c r="H23" t="n">
         <v>0.424</v>
       </c>
+      <c r="I23" t="n">
+        <v>8776.279760658665</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1230,7 +1301,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01449288376219471</v>
+        <v>-0.01449278275537935</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1256,6 +1327,9 @@
       <c r="H24" t="n">
         <v>0.4012</v>
       </c>
+      <c r="I24" t="n">
+        <v>8291.184946446814</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1264,7 +1338,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02739012349140069</v>
+        <v>-0.0273901725923924</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1290,6 +1364,9 @@
       <c r="H25" t="n">
         <v>0.3908</v>
       </c>
+      <c r="I25" t="n">
+        <v>8073.424138082501</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1298,7 +1375,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.004555389673498667</v>
+        <v>-0.004555493722138593</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1324,6 +1401,9 @@
       <c r="H26" t="n">
         <v>0.3814</v>
       </c>
+      <c r="I26" t="n">
+        <v>7876.858647906686</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1332,7 +1412,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00210477024987199</v>
+        <v>0.002104978492218024</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1358,6 +1438,9 @@
       <c r="H27" t="n">
         <v>0.3768</v>
       </c>
+      <c r="I27" t="n">
+        <v>7781.279659888455</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1366,7 +1449,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005994534940302998</v>
+        <v>0.005994482285165859</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1392,6 +1475,9 @@
       <c r="H28" t="n">
         <v>0.3667</v>
       </c>
+      <c r="I28" t="n">
+        <v>7569.858652808948</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1400,7 +1486,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001679456952427216</v>
+        <v>0.001679353508034609</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1426,6 +1512,9 @@
       <c r="H29" t="n">
         <v>0.3723</v>
       </c>
+      <c r="I29" t="n">
+        <v>7684.586717480764</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1434,7 +1523,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01257060957335732</v>
+        <v>0.01257076254448997</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1460,6 +1549,9 @@
       <c r="H30" t="n">
         <v>0.3624</v>
       </c>
+      <c r="I30" t="n">
+        <v>7477.47629546085</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1468,7 +1560,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.007766135163812748</v>
+        <v>-0.007766288134945398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1494,6 +1586,9 @@
       <c r="H31" t="n">
         <v>0.3497</v>
       </c>
+      <c r="I31" t="n">
+        <v>7210.732806252252</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1502,7 +1597,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.00858761550875542</v>
+        <v>-0.008587719171003982</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1528,6 +1623,9 @@
       <c r="H32" t="n">
         <v>0.3402</v>
       </c>
+      <c r="I32" t="n">
+        <v>7012.135062113184</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1536,7 +1634,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.009682597273567239</v>
+        <v>-0.009682336605076003</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1562,6 +1660,9 @@
       <c r="H33" t="n">
         <v>0.3492</v>
       </c>
+      <c r="I33" t="n">
+        <v>7195.229930493315</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1570,7 +1671,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0003147480027134719</v>
+        <v>0.0003147479533041064</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1596,6 +1697,9 @@
       <c r="H34" t="n">
         <v>0.3573</v>
       </c>
+      <c r="I34" t="n">
+        <v>7360.223323970789</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1604,7 +1708,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008503606628471161</v>
+        <v>0.008503397795701417</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1630,6 +1734,9 @@
       <c r="H35" t="n">
         <v>0.4</v>
       </c>
+      <c r="I35" t="n">
+        <v>8191.109970840487</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1638,7 +1745,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03792225184742826</v>
+        <v>0.03792230372336469</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1664,6 +1771,9 @@
       <c r="H36" t="n">
         <v>0.403</v>
       </c>
+      <c r="I36" t="n">
+        <v>8252.314066088038</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1698,6 +1808,9 @@
       <c r="H37" t="n">
         <v>0.3884</v>
       </c>
+      <c r="I37" t="n">
+        <v>7947.796864520576</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1706,7 +1819,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.003937735766957218</v>
+        <v>-0.003937638718657155</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1732,6 +1845,9 @@
       <c r="H38" t="n">
         <v>0.4044</v>
       </c>
+      <c r="I38" t="n">
+        <v>8268.639494990299</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1740,7 +1856,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.001791951715237161</v>
+        <v>-0.001791951541173731</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1766,6 +1882,9 @@
       <c r="H39" t="n">
         <v>0.4055</v>
       </c>
+      <c r="I39" t="n">
+        <v>8291.100314936662</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1774,7 +1893,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0004081534116728847</v>
+        <v>0.0004081533719979547</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1800,6 +1919,9 @@
       <c r="H40" t="n">
         <v>0.4011</v>
       </c>
+      <c r="I40" t="n">
+        <v>8200.643574928088</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1808,7 +1930,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01982575314808344</v>
+        <v>-0.019825850330772</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1834,6 +1956,9 @@
       <c r="H41" t="n">
         <v>0.3856</v>
       </c>
+      <c r="I41" t="n">
+        <v>7877.45448918014</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1842,7 +1967,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01910767868027108</v>
+        <v>-0.01910752711882857</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1868,6 +1993,9 @@
       <c r="H42" t="n">
         <v>0.3895</v>
       </c>
+      <c r="I42" t="n">
+        <v>7956.727697220922</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1876,7 +2004,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.005841636912469639</v>
+        <v>-0.005841636024511487</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1902,6 +2030,9 @@
       <c r="H43" t="n">
         <v>0.4216</v>
       </c>
+      <c r="I43" t="n">
+        <v>8586.845883369409</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1910,7 +2041,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04350320782523909</v>
+        <v>0.04350324998856969</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1936,6 +2067,9 @@
       <c r="H44" t="n">
         <v>0.4041</v>
       </c>
+      <c r="I44" t="n">
+        <v>8222.809770985616</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1944,7 +2078,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.01385643135569303</v>
+        <v>-0.0138566259684243</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1970,6 +2104,9 @@
       <c r="H45" t="n">
         <v>0.3722</v>
       </c>
+      <c r="I45" t="n">
+        <v>7546.639671486369</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1978,7 +2115,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.07985570324950864</v>
+        <v>-0.07985564981646043</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2004,6 +2141,9 @@
       <c r="H46" t="n">
         <v>0.3175</v>
       </c>
+      <c r="I46" t="n">
+        <v>6347.074687192409</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2012,7 +2152,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.1477979236897742</v>
+        <v>-0.1477979151790336</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2038,6 +2178,9 @@
       <c r="H47" t="n">
         <v>0.3687</v>
       </c>
+      <c r="I47" t="n">
+        <v>7295.997178738444</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2046,7 +2189,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01421707381032178</v>
+        <v>0.01421707293589414</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2072,6 +2215,9 @@
       <c r="H48" t="n">
         <v>0.3556</v>
       </c>
+      <c r="I48" t="n">
+        <v>7032.051336326515</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2080,7 +2226,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006356252559591269</v>
+        <v>0.006356130807807503</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2106,6 +2252,9 @@
       <c r="H49" t="n">
         <v>0.3323</v>
       </c>
+      <c r="I49" t="n">
+        <v>6555.500972890145</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2114,7 +2263,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.009377087567214559</v>
+        <v>-0.009376965630671918</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2140,6 +2289,9 @@
       <c r="H50" t="n">
         <v>0.3373</v>
       </c>
+      <c r="I50" t="n">
+        <v>6653.404539467943</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2148,7 +2300,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.005238489791871359</v>
+        <v>0.005238489471832253</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2174,6 +2326,9 @@
       <c r="H51" t="n">
         <v>0.332</v>
       </c>
+      <c r="I51" t="n">
+        <v>6548.029427689245</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2182,7 +2337,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02029799658321529</v>
+        <v>-0.02029799533373833</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2208,6 +2363,9 @@
       <c r="H52" t="n">
         <v>0.325</v>
       </c>
+      <c r="I52" t="n">
+        <v>6408.492318021422</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2216,7 +2374,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004535999001729962</v>
+        <v>0.004536060622431393</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2242,6 +2400,9 @@
       <c r="H53" t="n">
         <v>0.326</v>
       </c>
+      <c r="I53" t="n">
+        <v>6428.180481949278</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2250,7 +2411,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005419552172616804</v>
+        <v>0.005419489935915678</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2276,6 +2437,9 @@
       <c r="H54" t="n">
         <v>0.3046</v>
       </c>
+      <c r="I54" t="n">
+        <v>5991.720263455057</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2284,7 +2448,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.0450257620898924</v>
+        <v>-0.04502582365745056</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2310,6 +2474,9 @@
       <c r="H55" t="n">
         <v>0.3126</v>
       </c>
+      <c r="I55" t="n">
+        <v>6147.055476629094</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2318,7 +2485,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.006819837120012551</v>
+        <v>0.006819773154694175</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2344,6 +2511,9 @@
       <c r="H56" t="n">
         <v>0.3185</v>
       </c>
+      <c r="I56" t="n">
+        <v>6261.993470465972</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2352,7 +2522,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02987235948570799</v>
+        <v>0.02987248553380439</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2378,6 +2548,9 @@
       <c r="H57" t="n">
         <v>0.3163</v>
       </c>
+      <c r="I57" t="n">
+        <v>6218.589435209174</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2386,7 +2559,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0310831415252526</v>
+        <v>0.03108319980793794</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2412,6 +2585,9 @@
       <c r="H58" t="n">
         <v>0.3146</v>
       </c>
+      <c r="I58" t="n">
+        <v>6185.07658808408</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2420,7 +2596,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.0017387455770006</v>
+        <v>-0.001738805654998288</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2446,6 +2622,9 @@
       <c r="H59" t="n">
         <v>0.3066</v>
       </c>
+      <c r="I59" t="n">
+        <v>6025.76123573308</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2454,7 +2633,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.03353063423974589</v>
+        <v>-0.03353063218399477</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2480,6 +2659,9 @@
       <c r="H60" t="n">
         <v>0.3092</v>
       </c>
+      <c r="I60" t="n">
+        <v>6076.64487428446</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2488,7 +2670,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.009099558301240762</v>
+        <v>-0.009099494818260112</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2514,6 +2696,9 @@
       <c r="H61" t="n">
         <v>0.3187</v>
       </c>
+      <c r="I61" t="n">
+        <v>6260.535722426711</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2522,7 +2707,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.03510253127685203</v>
+        <v>0.03510228396463866</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2548,6 +2733,9 @@
       <c r="H62" t="n">
         <v>0.3145</v>
       </c>
+      <c r="I62" t="n">
+        <v>6177.482545984866</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2556,7 +2744,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.008120999545745633</v>
+        <v>-0.008120755583123085</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2582,6 +2770,9 @@
       <c r="H63" t="n">
         <v>0.3191</v>
       </c>
+      <c r="I63" t="n">
+        <v>6267.182416549811</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2590,7 +2781,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01138788313199512</v>
+        <v>0.01138776065538849</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2616,6 +2807,9 @@
       <c r="H64" t="n">
         <v>0.3193</v>
       </c>
+      <c r="I64" t="n">
+        <v>6271.109222703684</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2624,7 +2818,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.01389591733660467</v>
+        <v>-0.01389585594452036</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2650,6 +2844,9 @@
       <c r="H65" t="n">
         <v>0.3183</v>
       </c>
+      <c r="I65" t="n">
+        <v>6251.43822406929</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2658,7 +2855,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.004765545071014898</v>
+        <v>0.004765422578710599</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2684,6 +2881,9 @@
       <c r="H66" t="n">
         <v>0.3102</v>
       </c>
+      <c r="I66" t="n">
+        <v>6090.294378687244</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2692,7 +2892,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.01057509972410031</v>
+        <v>-0.01057497687409459</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2718,6 +2918,9 @@
       <c r="H67" t="n">
         <v>0.3145</v>
       </c>
+      <c r="I67" t="n">
+        <v>6174.138398021398</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2726,7 +2929,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01599008297881532</v>
+        <v>0.01599020353977565</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2752,6 +2955,9 @@
       <c r="H68" t="n">
         <v>0.3118</v>
       </c>
+      <c r="I68" t="n">
+        <v>6120.904238840276</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2760,7 +2966,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00290230396736213</v>
+        <v>0.002902061062478367</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2786,6 +2992,9 @@
       <c r="H69" t="n">
         <v>0.3069</v>
       </c>
+      <c r="I69" t="n">
+        <v>6023.949146313897</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2794,7 +3003,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01014394516542616</v>
+        <v>0.010144065742141</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2820,6 +3029,9 @@
       <c r="H70" t="n">
         <v>0.3142</v>
       </c>
+      <c r="I70" t="n">
+        <v>6165.558722373116</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2828,7 +3040,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01875360881318322</v>
+        <v>0.01875378430326613</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2854,6 +3066,9 @@
       <c r="H71" t="n">
         <v>0.3079</v>
       </c>
+      <c r="I71" t="n">
+        <v>6040.677359591908</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2862,7 +3077,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01331837706614714</v>
+        <v>0.0133181415934871</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2888,6 +3103,9 @@
       <c r="H72" t="n">
         <v>0.3003</v>
       </c>
+      <c r="I72" t="n">
+        <v>5889.70222744481</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2896,7 +3114,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01221503114234501</v>
+        <v>-0.01221520755212779</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2922,6 +3140,9 @@
       <c r="H73" t="n">
         <v>0.2632</v>
       </c>
+      <c r="I73" t="n">
+        <v>5113.040296129739</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2930,7 +3151,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.0453946199526527</v>
+        <v>-0.04539432047463343</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2956,6 +3177,9 @@
       <c r="H74" t="n">
         <v>0.2529</v>
       </c>
+      <c r="I74" t="n">
+        <v>4908.927493457579</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2964,7 +3188,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02569796228988785</v>
+        <v>-0.02569783281448856</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2990,6 +3214,9 @@
       <c r="H75" t="n">
         <v>0.2587</v>
       </c>
+      <c r="I75" t="n">
+        <v>5020.237107824762</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2998,7 +3225,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01941489140600972</v>
+        <v>0.01941482462824418</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3024,6 +3251,9 @@
       <c r="H76" t="n">
         <v>0.2534</v>
       </c>
+      <c r="I76" t="n">
+        <v>4916.319096784338</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3032,7 +3262,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.007408880558280373</v>
+        <v>0.007409002116789409</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3058,6 +3288,9 @@
       <c r="H77" t="n">
         <v>0.2566</v>
       </c>
+      <c r="I77" t="n">
+        <v>4978.014891180441</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3066,7 +3299,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.007725657854152246</v>
+        <v>0.007725411521629866</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3092,6 +3325,9 @@
       <c r="H78" t="n">
         <v>0.2594</v>
       </c>
+      <c r="I78" t="n">
+        <v>5032.040389262357</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3100,7 +3336,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.005786171475387292</v>
+        <v>-0.005786293813036636</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3126,6 +3362,9 @@
       <c r="H79" t="n">
         <v>0.2652</v>
       </c>
+      <c r="I79" t="n">
+        <v>5143.313830102126</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3134,7 +3373,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02653643694966945</v>
+        <v>0.0265364982954619</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3160,6 +3399,9 @@
       <c r="H80" t="n">
         <v>0.2603</v>
       </c>
+      <c r="I80" t="n">
+        <v>5047.393874966047</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3168,7 +3410,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003266878163248776</v>
+        <v>0.003266937707707029</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3194,6 +3436,9 @@
       <c r="H81" t="n">
         <v>0.2482</v>
       </c>
+      <c r="I81" t="n">
+        <v>4807.138233247724</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3202,7 +3447,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02688457456138771</v>
+        <v>-0.02688457293884738</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3228,6 +3473,9 @@
       <c r="H82" t="n">
         <v>0.244</v>
       </c>
+      <c r="I82" t="n">
+        <v>4725.096499646211</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3236,7 +3484,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.006960505903592207</v>
+        <v>-0.006960505476355294</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3262,6 +3510,9 @@
       <c r="H83" t="n">
         <v>0.2458</v>
       </c>
+      <c r="I83" t="n">
+        <v>4759.825825853904</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3270,7 +3521,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.000912935226457634</v>
+        <v>-0.0009129351701986366</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3296,6 +3547,9 @@
       <c r="H84" t="n">
         <v>0.2538</v>
       </c>
+      <c r="I84" t="n">
+        <v>4912.275232128132</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3304,7 +3558,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01401929379191991</v>
+        <v>0.01401941451809385</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3330,6 +3584,9 @@
       <c r="H85" t="n">
         <v>0.2529</v>
       </c>
+      <c r="I85" t="n">
+        <v>4894.824857712424</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3338,7 +3595,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002203295387067428</v>
+        <v>0.002202991693526002</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3364,6 +3621,9 @@
       <c r="H86" t="n">
         <v>0.2678</v>
       </c>
+      <c r="I86" t="n">
+        <v>5175.035370017805</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3372,7 +3632,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.002011392736243067</v>
+        <v>-0.002011210638809047</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3398,6 +3658,9 @@
       <c r="H87" t="n">
         <v>0.2692</v>
       </c>
+      <c r="I87" t="n">
+        <v>5202.018855800262</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3406,7 +3669,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.003383170821594561</v>
+        <v>-0.003383536534915521</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3432,6 +3695,9 @@
       <c r="H88" t="n">
         <v>0.2786</v>
       </c>
+      <c r="I88" t="n">
+        <v>5380.56495849562</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3440,7 +3706,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007426738489773044</v>
+        <v>0.007426982887240641</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3466,6 +3732,9 @@
       <c r="H89" t="n">
         <v>0.3168</v>
       </c>
+      <c r="I89" t="n">
+        <v>6071.933112484541</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3474,7 +3743,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.00961086205642836</v>
+        <v>0.009610922591720694</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3500,6 +3769,9 @@
       <c r="H90" t="n">
         <v>0.3222</v>
       </c>
+      <c r="I90" t="n">
+        <v>6174.559777157816</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3508,7 +3780,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0111515721999762</v>
+        <v>0.01115151290858662</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3534,6 +3806,9 @@
       <c r="H91" t="n">
         <v>0.323</v>
       </c>
+      <c r="I91" t="n">
+        <v>6189.871774532767</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3542,7 +3817,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02314686921605613</v>
+        <v>0.02314692850744571</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3568,6 +3843,9 @@
       <c r="H92" t="n">
         <v>0.3293</v>
       </c>
+      <c r="I92" t="n">
+        <v>6309.440699146885</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3576,7 +3854,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04101435409019594</v>
+        <v>0.04101440969684589</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3602,6 +3880,9 @@
       <c r="H93" t="n">
         <v>0.3456</v>
       </c>
+      <c r="I93" t="n">
+        <v>6614.267745755278</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3610,7 +3891,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0519982827215788</v>
+        <v>0.05199817432583664</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3636,6 +3917,9 @@
       <c r="H94" t="n">
         <v>0.3504</v>
       </c>
+      <c r="I94" t="n">
+        <v>6705.500471441999</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3644,7 +3928,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0789961077670025</v>
+        <v>0.0789965507913557</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3670,6 +3954,9 @@
       <c r="H95" t="n">
         <v>0.3455</v>
       </c>
+      <c r="I95" t="n">
+        <v>6611.068813640387</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3678,7 +3965,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02685050887141749</v>
+        <v>0.02685011863615649</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3704,6 +3991,9 @@
       <c r="H96" t="n">
         <v>0.3264</v>
       </c>
+      <c r="I96" t="n">
+        <v>6235.103808277493</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3738,6 +4028,9 @@
       <c r="H97" t="n">
         <v>0.3379</v>
       </c>
+      <c r="I97" t="n">
+        <v>6451.002823661256</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3772,6 +4065,9 @@
       <c r="H98" t="n">
         <v>0.3652</v>
       </c>
+      <c r="I98" t="n">
+        <v>6952.214487954727</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3806,6 +4102,9 @@
       <c r="H99" t="n">
         <v>0.375</v>
       </c>
+      <c r="I99" t="n">
+        <v>7136.315226423129</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3814,7 +4113,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02612394036532173</v>
+        <v>0.02612385067168965</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3840,6 +4139,9 @@
       <c r="H100" t="n">
         <v>0.3587</v>
       </c>
+      <c r="I100" t="n">
+        <v>6819.179936613922</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3848,7 +4150,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.004649657673336804</v>
+        <v>-0.004649477868063912</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3874,6 +4176,9 @@
       <c r="H101" t="n">
         <v>0.3732</v>
       </c>
+      <c r="I101" t="n">
+        <v>7089.410974919188</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3882,7 +4187,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01544455995661664</v>
+        <v>0.01544455857557381</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3908,6 +4213,9 @@
       <c r="H102" t="n">
         <v>0.3796</v>
       </c>
+      <c r="I102" t="n">
+        <v>7209.956467510364</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3916,7 +4224,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.002546163410960034</v>
+        <v>0.002546251690278112</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3942,6 +4250,9 @@
       <c r="H103" t="n">
         <v>0.3898</v>
       </c>
+      <c r="I103" t="n">
+        <v>7401.13365684977</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3950,7 +4261,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.001479239448809011</v>
+        <v>0.001479239187162307</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3976,6 +4287,9 @@
       <c r="H104" t="n">
         <v>0.3725</v>
       </c>
+      <c r="I104" t="n">
+        <v>7065.146248035559</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3984,7 +4298,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.01178063818526986</v>
+        <v>-0.01178072551214093</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4010,6 +4324,9 @@
       <c r="H105" t="n">
         <v>0.3902</v>
       </c>
+      <c r="I105" t="n">
+        <v>7393.127225178743</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4018,7 +4335,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.003790533836600218</v>
+        <v>0.003790622581366421</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4044,6 +4361,9 @@
       <c r="H106" t="n">
         <v>0.397</v>
       </c>
+      <c r="I106" t="n">
+        <v>7520.857193748431</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4052,7 +4372,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.02532921277136602</v>
+        <v>0.02532894775017525</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4078,6 +4398,9 @@
       <c r="H107" t="n">
         <v>0.3981</v>
       </c>
+      <c r="I107" t="n">
+        <v>7541.667024439578</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4086,7 +4409,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.006712937844120859</v>
+        <v>0.006713197246975611</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -4112,6 +4435,9 @@
       <c r="H108" t="n">
         <v>0.4038</v>
       </c>
+      <c r="I108" t="n">
+        <v>7648.882951730693</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4120,7 +4446,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1.07842984551354e-05</v>
+        <v>-1.069802175734935e-05</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -4146,6 +4472,9 @@
       <c r="H109" t="n">
         <v>0.3823</v>
       </c>
+      <c r="I109" t="n">
+        <v>7230.381471383273</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4154,7 +4483,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.02354481091187743</v>
+        <v>-0.02354506973640369</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -4180,6 +4509,9 @@
       <c r="H110" t="n">
         <v>0.3989</v>
       </c>
+      <c r="I110" t="n">
+        <v>7537.709690520539</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4188,7 +4520,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.007100248851111601</v>
+        <v>0.007100511967081502</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -4214,6 +4546,9 @@
       <c r="H111" t="n">
         <v>0.3942</v>
       </c>
+      <c r="I111" t="n">
+        <v>7448.370010089336</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4222,7 +4557,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.006330570076386266</v>
+        <v>-0.006330656667731915</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4248,6 +4583,9 @@
       <c r="H112" t="n">
         <v>0.3622</v>
       </c>
+      <c r="I112" t="n">
+        <v>6817.777230993128</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4256,7 +4594,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.04691549639434989</v>
+        <v>-0.04691558041711552</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4282,6 +4620,9 @@
       <c r="H113" t="n">
         <v>0.3581</v>
       </c>
+      <c r="I113" t="n">
+        <v>6740.161824797797</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4290,7 +4631,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.02466056582232845</v>
+        <v>-0.02466056351281942</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -4316,6 +4657,9 @@
       <c r="H114" t="n">
         <v>0.3593</v>
       </c>
+      <c r="I114" t="n">
+        <v>6762.710477524925</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4324,7 +4668,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.01127486257838761</v>
+        <v>-0.01127457384420438</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4350,6 +4694,9 @@
       <c r="H115" t="n">
         <v>0.3867</v>
       </c>
+      <c r="I115" t="n">
+        <v>7259.71224497407</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4358,7 +4705,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.02551687949892667</v>
+        <v>0.02551640248273479</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4384,6 +4731,9 @@
       <c r="H116" t="n">
         <v>0.419</v>
       </c>
+      <c r="I116" t="n">
+        <v>7842.098857473089</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4392,7 +4742,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.07399954698242439</v>
+        <v>0.07399990086375219</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4418,6 +4768,9 @@
       <c r="H117" t="n">
         <v>0.3874</v>
       </c>
+      <c r="I117" t="n">
+        <v>7227.175034845393</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4426,7 +4779,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.003319149205207594</v>
+        <v>0.003318888794520802</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4452,6 +4805,9 @@
       <c r="H118" t="n">
         <v>0.4033</v>
       </c>
+      <c r="I118" t="n">
+        <v>7517.873341464134</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4460,7 +4816,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.03724798878212177</v>
+        <v>0.03724815548745042</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4486,6 +4842,9 @@
       <c r="H119" t="n">
         <v>0.4038</v>
       </c>
+      <c r="I119" t="n">
+        <v>7527.1880166013</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4494,7 +4853,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.02918862520429499</v>
+        <v>0.02918862040872483</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4520,6 +4879,9 @@
       <c r="H120" t="n">
         <v>0.3925</v>
       </c>
+      <c r="I120" t="n">
+        <v>7313.54256961862</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4528,7 +4890,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.006449054157652512</v>
+        <v>-0.006449216067411001</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4554,6 +4916,9 @@
       <c r="H121" t="n">
         <v>0.3888</v>
       </c>
+      <c r="I121" t="n">
+        <v>7244.272609805286</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4562,7 +4927,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.02076980487507818</v>
+        <v>-0.02076972168643465</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4588,6 +4953,9 @@
       <c r="H122" t="n">
         <v>0.3824</v>
       </c>
+      <c r="I122" t="n">
+        <v>7124.032959690272</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4596,7 +4964,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.005903319917285543</v>
+        <v>-0.005903235743565105</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4622,6 +4990,9 @@
       <c r="H123" t="n">
         <v>0.3658</v>
       </c>
+      <c r="I123" t="n">
+        <v>6807.865205173836</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4630,7 +5001,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.02760978466234754</v>
+        <v>-0.02760986600091542</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4656,6 +5027,9 @@
       <c r="H124" t="n">
         <v>0.3647</v>
       </c>
+      <c r="I124" t="n">
+        <v>6787.362378655451</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4664,7 +5038,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.00771114980222265</v>
+        <v>-0.007711235826018736</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4690,6 +5064,9 @@
       <c r="H125" t="n">
         <v>0.3517</v>
       </c>
+      <c r="I125" t="n">
+        <v>6541.004484139849</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4698,7 +5075,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.01213779893365441</v>
+        <v>-0.01213771118531781</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4724,6 +5101,9 @@
       <c r="H126" t="n">
         <v>0.3601</v>
       </c>
+      <c r="I126" t="n">
+        <v>6695.393325095011</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4732,7 +5112,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01898618807683228</v>
+        <v>0.01898627252458063</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4758,6 +5138,9 @@
       <c r="H127" t="n">
         <v>0.3504</v>
       </c>
+      <c r="I127" t="n">
+        <v>6512.566159185668</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4766,7 +5149,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.001066893268665936</v>
+        <v>-0.001067151654710941</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4792,6 +5175,9 @@
       <c r="H128" t="n">
         <v>0.3431</v>
       </c>
+      <c r="I128" t="n">
+        <v>6375.454438908377</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4800,7 +5186,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.03846942590521252</v>
+        <v>-0.03846951885573979</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4826,6 +5212,9 @@
       <c r="H129" t="n">
         <v>0.3305</v>
       </c>
+      <c r="I129" t="n">
+        <v>6136.914958543844</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4834,7 +5223,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.01197874757367856</v>
+        <v>-0.01197838713395427</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4860,6 +5249,9 @@
       <c r="H130" t="n">
         <v>0.3306</v>
       </c>
+      <c r="I130" t="n">
+        <v>6138.771535462723</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4868,7 +5260,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.008578239863872739</v>
+        <v>-0.008578329732527479</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4894,6 +5286,9 @@
       <c r="H131" t="n">
         <v>0.3175</v>
       </c>
+      <c r="I131" t="n">
+        <v>5890.572610250691</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4902,7 +5297,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01601527265553671</v>
+        <v>-0.0160151782728164</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4928,6 +5323,9 @@
       <c r="H132" t="n">
         <v>0.3101</v>
       </c>
+      <c r="I132" t="n">
+        <v>5751.65528217444</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4936,7 +5334,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.05374447946524263</v>
+        <v>-0.05374456724205601</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4962,6 +5360,9 @@
       <c r="H133" t="n">
         <v>0.3149</v>
       </c>
+      <c r="I133" t="n">
+        <v>5840.002444311845</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4970,7 +5371,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.02916803256960776</v>
+        <v>-0.02916813060609691</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4996,6 +5397,9 @@
       <c r="H134" t="n">
         <v>0.3433</v>
       </c>
+      <c r="I134" t="n">
+        <v>6344.284157940066</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5030,6 +5434,9 @@
       <c r="H135" t="n">
         <v>0.3429</v>
       </c>
+      <c r="I135" t="n">
+        <v>6336.887731386259</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5064,6 +5471,9 @@
       <c r="H136" t="n">
         <v>0.3241</v>
       </c>
+      <c r="I136" t="n">
+        <v>5979.571231398898</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5072,7 +5482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.008590414658550927</v>
+        <v>0.008590498144361192</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -5098,6 +5508,9 @@
       <c r="H137" t="n">
         <v>0.3249</v>
       </c>
+      <c r="I137" t="n">
+        <v>5994.312862856485</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5106,7 +5519,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.02077650928915098</v>
+        <v>0.02077650757250282</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -5132,6 +5545,9 @@
       <c r="H138" t="n">
         <v>0.3494</v>
       </c>
+      <c r="I138" t="n">
+        <v>6430.099138391341</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5140,7 +5556,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.06327007006001573</v>
+        <v>0.06327014180262402</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -5166,6 +5582,9 @@
       <c r="H139" t="n">
         <v>0.3321</v>
       </c>
+      <c r="I139" t="n">
+        <v>6103.57054230804</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5174,7 +5593,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.03191173131500236</v>
+        <v>0.03191172649351692</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -5200,6 +5619,9 @@
       <c r="H140" t="n">
         <v>0.3696</v>
       </c>
+      <c r="I140" t="n">
+        <v>6756.562326979076</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5208,7 +5630,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.02767672724988657</v>
+        <v>0.02767657855960159</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -5234,6 +5656,9 @@
       <c r="H141" t="n">
         <v>0.3596</v>
       </c>
+      <c r="I141" t="n">
+        <v>6571.236327770513</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5268,6 +5693,9 @@
       <c r="H142" t="n">
         <v>0.3715</v>
       </c>
+      <c r="I142" t="n">
+        <v>6785.173187803173</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5301,6 +5729,9 @@
       </c>
       <c r="H143" t="n">
         <v>0.3596</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6564.271279216832</v>
       </c>
     </row>
   </sheetData>
